--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -755,10 +759,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,8 +799,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +837,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,43 +855,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="E12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J12" s="3">
         <v>3200</v>
       </c>
-      <c r="H12" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,43 +929,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
-        <v>-5400</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,8 +996,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,43 +1020,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>6000</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="F17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-600</v>
       </c>
-      <c r="H17" s="3">
-        <v>6800</v>
-      </c>
       <c r="I17" s="3">
-        <v>6000</v>
+        <v>6700</v>
       </c>
       <c r="J17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,34 +1068,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3200</v>
+        <v>-5900</v>
       </c>
       <c r="F18" s="3">
-        <v>-5200</v>
+        <v>-3100</v>
       </c>
       <c r="G18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-6700</v>
-      </c>
       <c r="I18" s="3">
-        <v>-5900</v>
+        <v>-6600</v>
       </c>
       <c r="J18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,8 +1112,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1088,34 +1122,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,34 +1160,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1166,8 +1206,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1184,51 +1224,57 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7100</v>
+        <v>-4000</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-7000</v>
       </c>
       <c r="F23" s="3">
-        <v>-4500</v>
+        <v>-4100</v>
       </c>
       <c r="G23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-4500</v>
-      </c>
       <c r="I23" s="3">
-        <v>-2900</v>
+        <v>-4400</v>
       </c>
       <c r="J23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
@@ -1240,22 +1286,25 @@
         <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-6900</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-4100</v>
+        <v>-6800</v>
       </c>
       <c r="F26" s="3">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="G26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-6900</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-4100</v>
+        <v>-6800</v>
       </c>
       <c r="F27" s="3">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="G27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,31 +1452,34 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,8 +1566,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1508,69 +1578,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-6900</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-4100</v>
+        <v>-6800</v>
       </c>
       <c r="F33" s="3">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="G33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-6900</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-4100</v>
+        <v>-6800</v>
       </c>
       <c r="F35" s="3">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="G35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,60 +1795,64 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
-        <v>2500</v>
-      </c>
       <c r="H41" s="3">
-        <v>9700</v>
+        <v>2400</v>
       </c>
       <c r="I41" s="3">
-        <v>12500</v>
+        <v>9600</v>
       </c>
       <c r="J41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K41" s="3">
         <v>22500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
         <v>3100</v>
       </c>
-      <c r="E42" s="3">
-        <v>3400</v>
-      </c>
       <c r="F42" s="3">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="G42" s="3">
         <v>2000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>2000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1773,49 +1863,55 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
-        <v>2900</v>
-      </c>
       <c r="I43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,96 +1945,105 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
-        <v>3900</v>
-      </c>
       <c r="J45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E46" s="3">
-        <v>5900</v>
+        <v>5000</v>
       </c>
       <c r="F46" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G46" s="3">
-        <v>9900</v>
+        <v>6100</v>
       </c>
       <c r="H46" s="3">
-        <v>13100</v>
+        <v>9800</v>
       </c>
       <c r="I46" s="3">
-        <v>16600</v>
+        <v>12900</v>
       </c>
       <c r="J46" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K46" s="3">
         <v>22900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
-        <v>1900</v>
-      </c>
       <c r="F47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G47" s="3">
         <v>2900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5200</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
@@ -1954,13 +2059,16 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1969,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -1984,48 +2092,54 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="E49" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="F49" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="G49" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="H49" s="3">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="I49" s="3">
-        <v>13400</v>
+        <v>10600</v>
       </c>
       <c r="J49" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,8 +2211,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2129,8 +2249,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="E54" s="3">
-        <v>17200</v>
+        <v>14100</v>
       </c>
       <c r="F54" s="3">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="G54" s="3">
-        <v>25500</v>
+        <v>18700</v>
       </c>
       <c r="H54" s="3">
-        <v>24200</v>
+        <v>25100</v>
       </c>
       <c r="I54" s="3">
-        <v>30500</v>
+        <v>23800</v>
       </c>
       <c r="J54" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K54" s="3">
         <v>23900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,43 +2359,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
-        <v>1900</v>
-      </c>
       <c r="H57" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="I57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,10 +2431,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2311,16 +2448,16 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
-        <v>2900</v>
-      </c>
       <c r="H59" s="3">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2332,45 +2469,51 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2404,8 +2547,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,34 +2559,37 @@
         <v>3400</v>
       </c>
       <c r="E62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I62" s="3">
         <v>3400</v>
       </c>
-      <c r="G62" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7500</v>
-      </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>7400</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4700</v>
+        <v>5500</v>
       </c>
       <c r="E66" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="F66" s="3">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="G66" s="3">
-        <v>8100</v>
+        <v>5900</v>
       </c>
       <c r="H66" s="3">
-        <v>7100</v>
+        <v>8000</v>
       </c>
       <c r="I66" s="3">
-        <v>9200</v>
+        <v>7000</v>
       </c>
       <c r="J66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15100</v>
+        <v>-19000</v>
       </c>
       <c r="E72" s="3">
-        <v>-12300</v>
+        <v>-14900</v>
       </c>
       <c r="F72" s="3">
-        <v>-8400</v>
+        <v>-12100</v>
       </c>
       <c r="G72" s="3">
-        <v>-4200</v>
+        <v>-8300</v>
       </c>
       <c r="H72" s="3">
-        <v>-113800</v>
+        <v>-4100</v>
       </c>
       <c r="I72" s="3">
-        <v>-109500</v>
+        <v>-112200</v>
       </c>
       <c r="J72" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-107100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-107200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9600</v>
+        <v>8100</v>
       </c>
       <c r="E76" s="3">
-        <v>12400</v>
+        <v>9400</v>
       </c>
       <c r="F76" s="3">
-        <v>12900</v>
+        <v>12200</v>
       </c>
       <c r="G76" s="3">
-        <v>17300</v>
+        <v>12800</v>
       </c>
       <c r="H76" s="3">
         <v>17100</v>
       </c>
       <c r="I76" s="3">
-        <v>21300</v>
+        <v>16800</v>
       </c>
       <c r="J76" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K76" s="3">
         <v>22800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-6900</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-4100</v>
+        <v>-6800</v>
       </c>
       <c r="F81" s="3">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="G81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,31 +3232,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
-        <v>-5200</v>
-      </c>
       <c r="J89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3308,8 +3529,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3321,16 +3542,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-4800</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-4700</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,19 +3832,22 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3616,21 +3862,24 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3642,56 +3891,62 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-10000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -762,10 +766,13 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,8 +809,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +850,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,46 +869,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="E12" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="F12" s="3">
-        <v>2500</v>
+        <v>4700</v>
       </c>
       <c r="G12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I12" s="3">
         <v>3400</v>
       </c>
-      <c r="H12" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4200</v>
-      </c>
       <c r="J12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K12" s="3">
         <v>3200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,46 +949,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1600</v>
+        <v>-300</v>
       </c>
       <c r="H14" s="3">
-        <v>-5300</v>
+        <v>1700</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -999,8 +1022,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>-5900</v>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>-3100</v>
+        <v>-6400</v>
       </c>
       <c r="G18" s="3">
-        <v>-5100</v>
+        <v>-3400</v>
       </c>
       <c r="H18" s="3">
-        <v>600</v>
+        <v>-5500</v>
       </c>
       <c r="I18" s="3">
-        <v>-6600</v>
+        <v>700</v>
       </c>
       <c r="J18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
-      </c>
       <c r="H20" s="3">
+        <v>800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
-        <v>2200</v>
-      </c>
       <c r="J20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-6300</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>-3700</v>
+        <v>-6900</v>
       </c>
       <c r="G21" s="3">
         <v>-4100</v>
       </c>
       <c r="H21" s="3">
-        <v>900</v>
+        <v>-4500</v>
       </c>
       <c r="I21" s="3">
-        <v>-3800</v>
+        <v>1000</v>
       </c>
       <c r="J21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1209,8 +1249,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1227,46 +1267,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4000</v>
+        <v>-4900</v>
       </c>
       <c r="E23" s="3">
-        <v>-7000</v>
+        <v>-4400</v>
       </c>
       <c r="F23" s="3">
-        <v>-4100</v>
+        <v>-7600</v>
       </c>
       <c r="G23" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-4400</v>
-      </c>
       <c r="J23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,10 +1320,10 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
@@ -1289,22 +1335,25 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
-        <v>-6800</v>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>-4000</v>
+        <v>-7400</v>
       </c>
       <c r="G26" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
-        <v>-6800</v>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>-4000</v>
+        <v>-7400</v>
       </c>
       <c r="G27" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,8 +1542,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2200</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
-        <v>-6800</v>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F33" s="3">
-        <v>-4000</v>
+        <v>-7400</v>
       </c>
       <c r="G33" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
-        <v>-6800</v>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F35" s="3">
-        <v>-4000</v>
+        <v>-7400</v>
       </c>
       <c r="G35" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,66 +1882,70 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4300</v>
+        <v>6300</v>
       </c>
       <c r="E41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>2000</v>
-      </c>
       <c r="H41" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="I41" s="3">
-        <v>9600</v>
+        <v>2600</v>
       </c>
       <c r="J41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K41" s="3">
         <v>12300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>3100</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>3300</v>
       </c>
       <c r="G42" s="3">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="H42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+        <v>2200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -1866,52 +1956,58 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F43" s="3">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="H43" s="3">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="I43" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1948,84 +2044,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5000</v>
+        <v>7700</v>
       </c>
       <c r="E46" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="F46" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="G46" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="H46" s="3">
-        <v>9800</v>
+        <v>6700</v>
       </c>
       <c r="I46" s="3">
-        <v>12900</v>
+        <v>10700</v>
       </c>
       <c r="J46" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K46" s="3">
         <v>16400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
-        <v>1800</v>
-      </c>
       <c r="G47" s="3">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
-        <v>5200</v>
+        <v>3100</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2062,16 +2167,19 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2080,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -2095,51 +2203,57 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="E49" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="F49" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="G49" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="H49" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="I49" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="J49" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K49" s="3">
         <v>13200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,8 +2331,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2252,8 +2372,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13600</v>
+        <v>16700</v>
       </c>
       <c r="E54" s="3">
-        <v>14100</v>
+        <v>14800</v>
       </c>
       <c r="F54" s="3">
-        <v>17000</v>
+        <v>15300</v>
       </c>
       <c r="G54" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="H54" s="3">
-        <v>25100</v>
+        <v>20400</v>
       </c>
       <c r="I54" s="3">
-        <v>23800</v>
+        <v>27300</v>
       </c>
       <c r="J54" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K54" s="3">
         <v>30000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,46 +2490,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,15 +2568,18 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2451,16 +2588,16 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="I59" s="3">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2472,48 +2609,54 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>3700</v>
       </c>
       <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2550,46 +2693,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="E62" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
-        <v>3200</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H62" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="I62" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="J62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K62" s="3">
         <v>7400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E66" s="3">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="F66" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G66" s="3">
-        <v>5900</v>
+        <v>5200</v>
       </c>
       <c r="H66" s="3">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="I66" s="3">
-        <v>7000</v>
+        <v>8700</v>
       </c>
       <c r="J66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19000</v>
+        <v>-25400</v>
       </c>
       <c r="E72" s="3">
-        <v>-14900</v>
+        <v>-20700</v>
       </c>
       <c r="F72" s="3">
-        <v>-12100</v>
+        <v>-16200</v>
       </c>
       <c r="G72" s="3">
-        <v>-8300</v>
+        <v>-13200</v>
       </c>
       <c r="H72" s="3">
-        <v>-4100</v>
+        <v>-9000</v>
       </c>
       <c r="I72" s="3">
-        <v>-112200</v>
+        <v>-4500</v>
       </c>
       <c r="J72" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-108000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-107100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8100</v>
+        <v>10200</v>
       </c>
       <c r="E76" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="F76" s="3">
-        <v>12200</v>
+        <v>10300</v>
       </c>
       <c r="G76" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="H76" s="3">
-        <v>17100</v>
+        <v>13900</v>
       </c>
       <c r="I76" s="3">
-        <v>16800</v>
+        <v>18600</v>
       </c>
       <c r="J76" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K76" s="3">
         <v>21000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3">
-        <v>-6800</v>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F81" s="3">
-        <v>-4000</v>
+        <v>-7400</v>
       </c>
       <c r="G81" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,34 +3431,35 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
-        <v>700</v>
-      </c>
       <c r="F83" s="3">
+        <v>800</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1800</v>
+        <v>-4400</v>
       </c>
       <c r="E89" s="3">
-        <v>-4500</v>
+        <v>-2000</v>
       </c>
       <c r="F89" s="3">
-        <v>-2900</v>
+        <v>-4900</v>
       </c>
       <c r="G89" s="3">
-        <v>-500</v>
+        <v>-3200</v>
       </c>
       <c r="H89" s="3">
-        <v>-5200</v>
+        <v>-600</v>
       </c>
       <c r="I89" s="3">
-        <v>-2500</v>
+        <v>-5700</v>
       </c>
       <c r="J89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,8 +3735,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3532,8 +3753,8 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3545,16 +3766,19 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>1600</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,22 +4078,25 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2500</v>
+        <v>6100</v>
       </c>
       <c r="E100" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="F100" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3865,24 +4111,27 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3894,59 +4143,65 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
-        <v>-300</v>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F102" s="3">
         <v>-400</v>
       </c>
       <c r="G102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
-        <v>-5200</v>
-      </c>
       <c r="I102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -738,11 +738,11 @@
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E12" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F12" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G12" s="3">
         <v>2700</v>
       </c>
       <c r="H12" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I12" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J12" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K12" s="3">
         <v>3200</v>
@@ -958,10 +958,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>-300</v>
       </c>
       <c r="H14" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I14" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1053,26 +1053,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
       </c>
       <c r="F17" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G17" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H17" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I17" s="3">
         <v>-600</v>
       </c>
       <c r="J17" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K17" s="3">
         <v>5900</v>
@@ -1097,23 +1097,23 @@
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-4400</v>
       </c>
       <c r="F18" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="G18" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="H18" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="I18" s="3">
         <v>700</v>
       </c>
       <c r="J18" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="K18" s="3">
         <v>-5800</v>
@@ -1155,11 +1155,11 @@
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G20" s="3">
         <v>-1100</v>
@@ -1171,7 +1171,7 @@
         <v>-500</v>
       </c>
       <c r="J20" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K20" s="3">
         <v>3000</v>
@@ -1196,23 +1196,23 @@
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-4100</v>
       </c>
       <c r="F21" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="G21" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H21" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="I21" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J21" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K21" s="3">
         <v>-2500</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-4900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-4800</v>
       </c>
       <c r="I23" s="3">
         <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="K23" s="3">
         <v>-2800</v>
@@ -1398,26 +1398,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4300</v>
       </c>
       <c r="F26" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G26" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H26" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I26" s="3">
         <v>300</v>
       </c>
       <c r="J26" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K26" s="3">
         <v>-2800</v>
@@ -1439,26 +1439,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4300</v>
       </c>
       <c r="F27" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G27" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H27" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I27" s="3">
         <v>300</v>
       </c>
       <c r="J27" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K27" s="3">
         <v>-2800</v>
@@ -1647,11 +1647,11 @@
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G32" s="3">
         <v>1100</v>
@@ -1663,7 +1663,7 @@
         <v>500</v>
       </c>
       <c r="J32" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K32" s="3">
         <v>-3000</v>
@@ -1685,26 +1685,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4300</v>
       </c>
       <c r="F33" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G33" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H33" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I33" s="3">
         <v>300</v>
       </c>
       <c r="J33" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K33" s="3">
         <v>-2800</v>
@@ -1767,26 +1767,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4300</v>
       </c>
       <c r="F35" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G35" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H35" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I35" s="3">
         <v>300</v>
       </c>
       <c r="J35" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K35" s="3">
         <v>-2800</v>
@@ -1889,10 +1889,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6300</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
-        <v>4700</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
@@ -1901,13 +1901,13 @@
         <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I41" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J41" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="K41" s="3">
         <v>12300</v>
@@ -1929,17 +1929,17 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3800</v>
       </c>
       <c r="F42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G42" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H42" s="3">
         <v>2200</v>
@@ -1977,19 +1977,19 @@
         <v>700</v>
       </c>
       <c r="F43" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G43" s="3">
         <v>2400</v>
       </c>
       <c r="H43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I43" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J43" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -2071,7 +2071,7 @@
         <v>1900</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>3800</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F46" s="3">
         <v>5500</v>
       </c>
-      <c r="F46" s="3">
-        <v>5400</v>
-      </c>
       <c r="G46" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="H46" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I46" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="J46" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="K46" s="3">
         <v>16400</v>
@@ -2147,10 +2147,10 @@
         <v>2000</v>
       </c>
       <c r="H47" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I47" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="E49" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F49" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="G49" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="H49" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="I49" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="J49" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="K49" s="3">
         <v>13200</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="E54" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="F54" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="G54" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="H54" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="I54" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="J54" s="3">
-        <v>26000</v>
+        <v>26500</v>
       </c>
       <c r="K54" s="3">
         <v>30000</v>
@@ -2497,10 +2497,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F57" s="3">
         <v>1300</v>
@@ -2512,7 +2512,7 @@
         <v>1500</v>
       </c>
       <c r="I57" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
@@ -2579,7 +2579,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2594,10 +2594,10 @@
         <v>1300</v>
       </c>
       <c r="I59" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2623,7 +2623,7 @@
         <v>3700</v>
       </c>
       <c r="E60" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F60" s="3">
         <v>1400</v>
@@ -2632,13 +2632,13 @@
         <v>1800</v>
       </c>
       <c r="H60" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I60" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J60" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K60" s="3">
         <v>1700</v>
@@ -2702,22 +2702,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E62" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G62" s="3">
         <v>3500</v>
       </c>
       <c r="H62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J62" s="3">
         <v>3800</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E66" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F66" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G66" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H66" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I66" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J66" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="K66" s="3">
         <v>9000</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25400</v>
+        <v>-25600</v>
       </c>
       <c r="E72" s="3">
-        <v>-20700</v>
+        <v>-21100</v>
       </c>
       <c r="F72" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="G72" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="H72" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="I72" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="J72" s="3">
-        <v>-122200</v>
+        <v>-124800</v>
       </c>
       <c r="K72" s="3">
         <v>-108000</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E76" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="F76" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="G76" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="H76" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I76" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="J76" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="K76" s="3">
         <v>21000</v>
@@ -3379,26 +3379,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4300</v>
       </c>
       <c r="F81" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G81" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H81" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I81" s="3">
         <v>300</v>
       </c>
       <c r="J81" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K81" s="3">
         <v>-2800</v>
@@ -3437,8 +3437,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3684,13 +3684,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="E89" s="3">
         <v>-2000</v>
       </c>
       <c r="F89" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="G89" s="3">
         <v>-3200</v>
@@ -3699,10 +3699,10 @@
         <v>-600</v>
       </c>
       <c r="I89" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="J89" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K89" s="3">
         <v>-5100</v>
@@ -3864,11 +3864,11 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>1700</v>
@@ -4087,10 +4087,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E100" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F100" s="3">
         <v>2800</v>
@@ -4168,11 +4168,11 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
       </c>
       <c r="F102" s="3">
         <v>-400</v>
@@ -4184,10 +4184,10 @@
         <v>-500</v>
       </c>
       <c r="I102" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="J102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="K102" s="3">
         <v>-9900</v>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -769,10 +773,13 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,8 +819,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +863,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,49 +883,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3900</v>
+        <v>2200</v>
       </c>
       <c r="E12" s="3">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="3">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="G12" s="3">
-        <v>2700</v>
+        <v>4900</v>
       </c>
       <c r="H12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N12" s="3">
         <v>3500</v>
       </c>
-      <c r="J12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,49 +969,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
-        <v>-5900</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,8 +1048,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,8 +1074,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1057,40 +1084,43 @@
         <v>5000</v>
       </c>
       <c r="E17" s="3">
-        <v>4400</v>
+        <v>5100</v>
       </c>
       <c r="F17" s="3">
-        <v>6600</v>
+        <v>4500</v>
       </c>
       <c r="G17" s="3">
-        <v>3500</v>
+        <v>6700</v>
       </c>
       <c r="H17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>5500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>5700</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1098,40 +1128,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-4400</v>
+        <v>-5100</v>
       </c>
       <c r="F18" s="3">
-        <v>-6500</v>
+        <v>-4500</v>
       </c>
       <c r="G18" s="3">
-        <v>-3500</v>
+        <v>-6700</v>
       </c>
       <c r="H18" s="3">
-        <v>-5700</v>
+        <v>-3600</v>
       </c>
       <c r="I18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,8 +1180,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,40 +1190,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1300</v>
-      </c>
       <c r="G20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1197,40 +1234,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-4100</v>
+        <v>-4700</v>
       </c>
       <c r="F21" s="3">
-        <v>-7000</v>
+        <v>-4200</v>
       </c>
       <c r="G21" s="3">
-        <v>-4200</v>
+        <v>-7200</v>
       </c>
       <c r="H21" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="I21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1252,8 +1292,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1270,49 +1310,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
-        <v>200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1323,10 +1369,10 @@
         <v>-100</v>
       </c>
       <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
@@ -1338,22 +1384,25 @@
         <v>-100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
-        <v>300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
-        <v>300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1545,8 +1606,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,8 +1706,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1648,81 +1718,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>1300</v>
-      </c>
       <c r="G32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
+        <v>300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
-        <v>300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
+        <v>300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
-        <v>300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,72 +1969,76 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>900</v>
+        <v>8600</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
       </c>
       <c r="F41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
-        <v>2700</v>
-      </c>
       <c r="J41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5500</v>
+        <v>6100</v>
       </c>
       <c r="E42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H42" s="3">
         <v>3800</v>
       </c>
-      <c r="F42" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2200</v>
-      </c>
       <c r="I42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+        <v>2300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -1959,55 +2049,61 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
-        <v>2400</v>
-      </c>
       <c r="H43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
-        <v>4100</v>
-      </c>
       <c r="J43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2047,113 +2143,122 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7900</v>
+        <v>15600</v>
       </c>
       <c r="E46" s="3">
-        <v>5600</v>
+        <v>8100</v>
       </c>
       <c r="F46" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G46" s="3">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="H46" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I46" s="3">
-        <v>10900</v>
+        <v>7000</v>
       </c>
       <c r="J46" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K46" s="3">
         <v>14400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
-        <v>2000</v>
-      </c>
       <c r="H47" s="3">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="I47" s="3">
-        <v>5800</v>
+        <v>3300</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2170,8 +2275,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2181,8 +2289,8 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2191,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2206,54 +2314,60 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="E49" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="F49" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="G49" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="H49" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="I49" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="J49" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K49" s="3">
         <v>11800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,8 +2451,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2375,8 +2495,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="E54" s="3">
-        <v>15100</v>
+        <v>17500</v>
       </c>
       <c r="F54" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="G54" s="3">
-        <v>18900</v>
+        <v>16000</v>
       </c>
       <c r="H54" s="3">
-        <v>20800</v>
+        <v>19400</v>
       </c>
       <c r="I54" s="3">
-        <v>27900</v>
+        <v>21400</v>
       </c>
       <c r="J54" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K54" s="3">
         <v>26500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,49 +2621,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
-        <v>1500</v>
-      </c>
       <c r="I57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,18 +2705,21 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2591,16 +2728,16 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -2612,51 +2749,57 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3700</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
-        <v>5200</v>
-      </c>
       <c r="J60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2696,49 +2839,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I62" s="3">
         <v>3800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3700</v>
       </c>
       <c r="J62" s="3">
         <v>3800</v>
       </c>
       <c r="K62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L62" s="3">
         <v>7400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="E66" s="3">
-        <v>6100</v>
+        <v>6800</v>
       </c>
       <c r="F66" s="3">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="G66" s="3">
         <v>5300</v>
       </c>
       <c r="H66" s="3">
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="I66" s="3">
-        <v>8900</v>
+        <v>6800</v>
       </c>
       <c r="J66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25600</v>
+        <v>-30900</v>
       </c>
       <c r="E72" s="3">
-        <v>-21100</v>
+        <v>-26300</v>
       </c>
       <c r="F72" s="3">
-        <v>-16600</v>
+        <v>-21700</v>
       </c>
       <c r="G72" s="3">
-        <v>-13500</v>
+        <v>-17000</v>
       </c>
       <c r="H72" s="3">
-        <v>-9200</v>
+        <v>-13900</v>
       </c>
       <c r="I72" s="3">
-        <v>-4600</v>
+        <v>-9400</v>
       </c>
       <c r="J72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-124800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-108000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-107000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10400</v>
+        <v>24000</v>
       </c>
       <c r="E76" s="3">
-        <v>9100</v>
+        <v>10700</v>
       </c>
       <c r="F76" s="3">
-        <v>10500</v>
+        <v>9300</v>
       </c>
       <c r="G76" s="3">
-        <v>13600</v>
+        <v>10800</v>
       </c>
       <c r="H76" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="I76" s="3">
-        <v>19000</v>
+        <v>14600</v>
       </c>
       <c r="J76" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K76" s="3">
         <v>18700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
+        <v>300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
-        <v>300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,25 +3643,25 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>800</v>
-      </c>
       <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4500</v>
+        <v>-9300</v>
       </c>
       <c r="E89" s="3">
-        <v>-2000</v>
+        <v>-4600</v>
       </c>
       <c r="F89" s="3">
-        <v>-5000</v>
+        <v>-2100</v>
       </c>
       <c r="G89" s="3">
-        <v>-3200</v>
+        <v>-5100</v>
       </c>
       <c r="H89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-5800</v>
-      </c>
       <c r="J89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,8 +3956,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3756,8 +3977,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3769,16 +3990,19 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,8 +4086,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,37 +4101,40 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,25 +4324,28 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6200</v>
+        <v>17900</v>
       </c>
       <c r="E100" s="3">
-        <v>2800</v>
+        <v>6400</v>
       </c>
       <c r="F100" s="3">
         <v>2800</v>
       </c>
       <c r="G100" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4114,27 +4360,30 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>-600</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4146,62 +4395,68 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1700</v>
+        <v>8000</v>
       </c>
       <c r="E102" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="F102" s="3">
-        <v>-400</v>
+        <v>800</v>
       </c>
       <c r="G102" s="3">
         <v>-400</v>
       </c>
       <c r="H102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
-        <v>-5800</v>
-      </c>
       <c r="J102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -893,19 +893,19 @@
         <v>2200</v>
       </c>
       <c r="E12" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G12" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J12" s="3">
         <v>3600</v>
@@ -993,10 +993,10 @@
         <v>-300</v>
       </c>
       <c r="I14" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J14" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,22 +1081,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E17" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F17" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G17" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H17" s="3">
         <v>3600</v>
       </c>
       <c r="I17" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J17" s="3">
         <v>-700</v>
@@ -1128,19 +1128,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="F18" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="G18" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="H18" s="3">
         <v>-3600</v>
       </c>
       <c r="I18" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J18" s="3">
         <v>700</v>
@@ -1199,7 +1199,7 @@
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I20" s="3">
         <v>800</v>
@@ -1234,19 +1234,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="F21" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="G21" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H21" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="I21" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="J21" s="3">
         <v>1100</v>
@@ -1319,22 +1319,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-5000</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
@@ -1451,22 +1451,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-4900</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
@@ -1495,22 +1495,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-4900</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
@@ -1727,7 +1727,7 @@
         <v>1400</v>
       </c>
       <c r="H32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I32" s="3">
         <v>-800</v>
@@ -1759,22 +1759,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-4900</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
@@ -1847,22 +1847,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-4900</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
@@ -1976,7 +1976,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
@@ -1991,7 +1991,7 @@
         <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J41" s="3">
         <v>2800</v>
@@ -2020,19 +2020,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E42" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H42" s="3">
         <v>3900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3800</v>
       </c>
       <c r="I42" s="3">
         <v>2300</v>
@@ -2079,10 +2079,10 @@
         <v>2500</v>
       </c>
       <c r="I43" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J43" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K43" s="3">
         <v>3200</v>
@@ -2170,7 +2170,7 @@
         <v>600</v>
       </c>
       <c r="J45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="E46" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="F46" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G46" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H46" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I46" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J46" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="K46" s="3">
         <v>14400</v>
@@ -2240,7 +2240,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>2100</v>
       </c>
       <c r="I47" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J47" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="E49" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F49" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="G49" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="H49" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="I49" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="J49" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="K49" s="3">
         <v>11800</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="E54" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="F54" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="G54" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="H54" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="I54" s="3">
-        <v>21400</v>
+        <v>21800</v>
       </c>
       <c r="J54" s="3">
-        <v>28700</v>
+        <v>29300</v>
       </c>
       <c r="K54" s="3">
         <v>26500</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G57" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
       </c>
       <c r="J57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
@@ -2716,7 +2716,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
@@ -2734,7 +2734,7 @@
         <v>1400</v>
       </c>
       <c r="J59" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K59" s="3">
         <v>2600</v>
@@ -2763,22 +2763,22 @@
         <v>2100</v>
       </c>
       <c r="E60" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F60" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H60" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I60" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J60" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="K60" s="3">
         <v>4000</v>
@@ -2851,22 +2851,22 @@
         <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G62" s="3">
         <v>3900</v>
       </c>
       <c r="H62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K62" s="3">
         <v>3800</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E66" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F66" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G66" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H66" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I66" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="J66" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="K66" s="3">
         <v>7800</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="E72" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="F72" s="3">
-        <v>-21700</v>
+        <v>-22200</v>
       </c>
       <c r="G72" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="H72" s="3">
-        <v>-13900</v>
+        <v>-14200</v>
       </c>
       <c r="I72" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J72" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K72" s="3">
         <v>-124800</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24000</v>
+        <v>24600</v>
       </c>
       <c r="E76" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F76" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="G76" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="H76" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I76" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="J76" s="3">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="K76" s="3">
         <v>18700</v>
@@ -3575,22 +3575,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-4900</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="E89" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="F89" s="3">
         <v>-2100</v>
       </c>
       <c r="G89" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="H89" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="I89" s="3">
         <v>-600</v>
       </c>
       <c r="J89" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -4333,19 +4333,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17900</v>
+        <v>18300</v>
       </c>
       <c r="E100" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F100" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G100" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H100" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E102" s="3">
         <v>1800</v>
@@ -4439,7 +4439,7 @@
         <v>-500</v>
       </c>
       <c r="J102" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K102" s="3">
         <v>-3100</v>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -890,25 +890,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="F12" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="H12" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="I12" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="J12" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K12" s="3">
         <v>4600</v>
@@ -981,7 +981,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>-300</v>
       </c>
       <c r="I14" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="J14" s="3">
-        <v>-6200</v>
+        <v>-5700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="E17" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="F17" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="G17" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="H17" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="I17" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="J17" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K17" s="3">
         <v>7400</v>
@@ -1128,19 +1128,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-5200</v>
+        <v>-4800</v>
       </c>
       <c r="F18" s="3">
-        <v>-4600</v>
+        <v>-4200</v>
       </c>
       <c r="G18" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="H18" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="I18" s="3">
-        <v>-5900</v>
+        <v>-5500</v>
       </c>
       <c r="J18" s="3">
         <v>700</v>
@@ -1196,13 +1196,13 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>-500</v>
@@ -1234,22 +1234,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-4800</v>
+        <v>-4400</v>
       </c>
       <c r="F21" s="3">
-        <v>-4300</v>
+        <v>-3900</v>
       </c>
       <c r="G21" s="3">
-        <v>-7400</v>
+        <v>-6800</v>
       </c>
       <c r="H21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4400</v>
       </c>
-      <c r="I21" s="3">
-        <v>-4800</v>
-      </c>
       <c r="J21" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K21" s="3">
         <v>-4300</v>
@@ -1319,22 +1319,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E23" s="3">
-        <v>-5200</v>
+        <v>-4800</v>
       </c>
       <c r="F23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-5100</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
@@ -1451,22 +1451,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="E26" s="3">
-        <v>-5100</v>
+        <v>-4700</v>
       </c>
       <c r="F26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-5000</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
@@ -1495,22 +1495,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="E27" s="3">
-        <v>-5100</v>
+        <v>-4700</v>
       </c>
       <c r="F27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-5000</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
@@ -1724,13 +1724,13 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>500</v>
@@ -1759,22 +1759,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="E33" s="3">
-        <v>-5100</v>
+        <v>-4700</v>
       </c>
       <c r="F33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-5000</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
@@ -1847,22 +1847,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="E35" s="3">
-        <v>-5100</v>
+        <v>-4700</v>
       </c>
       <c r="F35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-5000</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
@@ -1976,10 +1976,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8800</v>
+        <v>8100</v>
       </c>
       <c r="E41" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
@@ -1991,10 +1991,10 @@
         <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="J41" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K41" s="3">
         <v>10700</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="E42" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="F42" s="3">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="G42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H42" s="3">
         <v>3600</v>
       </c>
-      <c r="H42" s="3">
-        <v>3900</v>
-      </c>
       <c r="I42" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="J42" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2064,7 +2064,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
@@ -2073,16 +2073,16 @@
         <v>700</v>
       </c>
       <c r="G43" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H43" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I43" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J43" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="K43" s="3">
         <v>3200</v>
@@ -2152,7 +2152,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -2167,10 +2167,10 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15900</v>
+        <v>14700</v>
       </c>
       <c r="E46" s="3">
-        <v>8300</v>
+        <v>7600</v>
       </c>
       <c r="F46" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="G46" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="H46" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="I46" s="3">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="J46" s="3">
-        <v>11400</v>
+        <v>10500</v>
       </c>
       <c r="K46" s="3">
         <v>14400</v>
@@ -2240,7 +2240,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2252,13 +2252,13 @@
         <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I47" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="J47" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9200</v>
+        <v>8500</v>
       </c>
       <c r="E49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G49" s="3">
         <v>9600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>10000</v>
       </c>
-      <c r="G49" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>10900</v>
-      </c>
       <c r="I49" s="3">
-        <v>11300</v>
+        <v>10400</v>
       </c>
       <c r="J49" s="3">
-        <v>11700</v>
+        <v>10800</v>
       </c>
       <c r="K49" s="3">
         <v>11800</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30700</v>
+        <v>28300</v>
       </c>
       <c r="E54" s="3">
-        <v>17900</v>
+        <v>16500</v>
       </c>
       <c r="F54" s="3">
-        <v>15900</v>
+        <v>14600</v>
       </c>
       <c r="G54" s="3">
-        <v>16400</v>
+        <v>15100</v>
       </c>
       <c r="H54" s="3">
-        <v>19800</v>
+        <v>18300</v>
       </c>
       <c r="I54" s="3">
-        <v>21800</v>
+        <v>20100</v>
       </c>
       <c r="J54" s="3">
-        <v>29300</v>
+        <v>27000</v>
       </c>
       <c r="K54" s="3">
         <v>26500</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2200</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
@@ -2716,10 +2716,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2731,10 +2731,10 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J59" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K59" s="3">
         <v>2600</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="F60" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G60" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H60" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="I60" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J60" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="K60" s="3">
         <v>4000</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="H62" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="I62" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="J62" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="K62" s="3">
         <v>3800</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="E66" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="F66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>6900</v>
-      </c>
       <c r="J66" s="3">
-        <v>9300</v>
+        <v>8600</v>
       </c>
       <c r="K66" s="3">
         <v>7800</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-31600</v>
+        <v>-29100</v>
       </c>
       <c r="E72" s="3">
-        <v>-26900</v>
+        <v>-24800</v>
       </c>
       <c r="F72" s="3">
-        <v>-22200</v>
+        <v>-20400</v>
       </c>
       <c r="G72" s="3">
-        <v>-17400</v>
+        <v>-16000</v>
       </c>
       <c r="H72" s="3">
-        <v>-14200</v>
+        <v>-13100</v>
       </c>
       <c r="I72" s="3">
-        <v>-9600</v>
+        <v>-8900</v>
       </c>
       <c r="J72" s="3">
-        <v>-4800</v>
+        <v>-4400</v>
       </c>
       <c r="K72" s="3">
         <v>-124800</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24600</v>
+        <v>22600</v>
       </c>
       <c r="E76" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="F76" s="3">
-        <v>9500</v>
+        <v>8800</v>
       </c>
       <c r="G76" s="3">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="H76" s="3">
-        <v>14200</v>
+        <v>13100</v>
       </c>
       <c r="I76" s="3">
-        <v>14900</v>
+        <v>13800</v>
       </c>
       <c r="J76" s="3">
-        <v>20000</v>
+        <v>18400</v>
       </c>
       <c r="K76" s="3">
         <v>18700</v>
@@ -3575,22 +3575,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="E81" s="3">
-        <v>-5100</v>
+        <v>-4700</v>
       </c>
       <c r="F81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-5000</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
@@ -3655,7 +3655,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9500</v>
+        <v>-8800</v>
       </c>
       <c r="E89" s="3">
-        <v>-4700</v>
+        <v>-4300</v>
       </c>
       <c r="F89" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>-5200</v>
+        <v>-4800</v>
       </c>
       <c r="H89" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="I89" s="3">
         <v>-600</v>
       </c>
       <c r="J89" s="3">
-        <v>-6100</v>
+        <v>-5600</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4333,19 +4333,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18300</v>
+        <v>16900</v>
       </c>
       <c r="E100" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="F100" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="G100" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="H100" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
@@ -4421,13 +4421,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="E102" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F102" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G102" s="3">
         <v>-400</v>
@@ -4439,7 +4439,7 @@
         <v>-500</v>
       </c>
       <c r="J102" s="3">
-        <v>-6100</v>
+        <v>-5600</v>
       </c>
       <c r="K102" s="3">
         <v>-3100</v>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>10900</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -749,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -776,10 +780,13 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,8 +829,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +876,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,52 +897,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,52 +989,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,8 +1074,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
-        <v>3400</v>
-      </c>
       <c r="I17" s="3">
-        <v>5600</v>
+        <v>3300</v>
       </c>
       <c r="J17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K17" s="3">
         <v>-600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1700</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3400</v>
-      </c>
       <c r="I18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,96 +1214,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1200</v>
       </c>
       <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1295,8 +1335,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1313,57 +1353,63 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-7600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
@@ -1372,10 +1418,10 @@
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1387,22 +1433,25 @@
         <v>-100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1670,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,78 +2056,82 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E42" s="3">
         <v>5700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>2100</v>
       </c>
       <c r="J42" s="3">
         <v>2100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>2100</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -2052,14 +2142,17 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,43 +2160,46 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2146,123 +2242,132 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>5400</v>
       </c>
       <c r="G46" s="3">
         <v>5400</v>
       </c>
       <c r="H46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I46" s="3">
         <v>6300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E47" s="3">
         <v>5100</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5600</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
@@ -2278,8 +2383,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2292,8 +2400,8 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2302,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -2317,57 +2425,63 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E49" s="3">
         <v>8500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8900</v>
       </c>
-      <c r="F49" s="3">
-        <v>9300</v>
-      </c>
       <c r="G49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H49" s="3">
         <v>9600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,8 +2571,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2498,8 +2618,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E54" s="3">
         <v>28300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,52 +2752,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,21 +2842,24 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2731,16 +2868,16 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -2752,54 +2889,60 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2842,52 +2985,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3600</v>
       </c>
       <c r="J62" s="3">
         <v>3600</v>
       </c>
       <c r="K62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L62" s="3">
         <v>3800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-124800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-108000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-107200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-107000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13100</v>
       </c>
-      <c r="I76" s="3">
-        <v>13800</v>
-      </c>
       <c r="J76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K76" s="3">
         <v>18400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,13 +3829,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3646,25 +3845,25 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="P89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,8 +4177,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3980,8 +4201,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3993,16 +4214,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,8 +4316,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4104,37 +4334,40 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,19 +4570,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>16900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2700</v>
       </c>
       <c r="G100" s="3">
         <v>2700</v>
@@ -4348,7 +4594,7 @@
         <v>2700</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4363,30 +4609,33 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>29300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4398,65 +4647,71 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-400</v>
       </c>
       <c r="H102" s="3">
         <v>-400</v>
       </c>
       <c r="I102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>10900</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -756,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -783,10 +787,13 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,8 +839,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,8 +889,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,55 +911,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="F12" s="3">
-        <v>3800</v>
+        <v>2100</v>
       </c>
       <c r="G12" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="H12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M12" s="3">
         <v>4600</v>
       </c>
-      <c r="I12" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,55 +1009,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,8 +1100,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12600</v>
+        <v>9700</v>
       </c>
       <c r="E17" s="3">
-        <v>4700</v>
+        <v>12800</v>
       </c>
       <c r="F17" s="3">
         <v>4800</v>
       </c>
       <c r="G17" s="3">
-        <v>4200</v>
+        <v>4900</v>
       </c>
       <c r="H17" s="3">
-        <v>6300</v>
+        <v>4300</v>
       </c>
       <c r="I17" s="3">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="J17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-4700</v>
       </c>
       <c r="F18" s="3">
         <v>-4800</v>
       </c>
       <c r="G18" s="3">
-        <v>-4200</v>
+        <v>-4900</v>
       </c>
       <c r="H18" s="3">
-        <v>-6300</v>
+        <v>-4300</v>
       </c>
       <c r="I18" s="3">
-        <v>-3300</v>
+        <v>-6400</v>
       </c>
       <c r="J18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,13 +1248,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1230,87 +1264,93 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-4300</v>
       </c>
       <c r="F21" s="3">
         <v>-4400</v>
       </c>
       <c r="G21" s="3">
-        <v>-3900</v>
+        <v>-4500</v>
       </c>
       <c r="H21" s="3">
-        <v>-6800</v>
+        <v>-4000</v>
       </c>
       <c r="I21" s="3">
-        <v>-4000</v>
+        <v>-6900</v>
       </c>
       <c r="J21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1338,8 +1378,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1356,55 +1396,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-4800</v>
-      </c>
       <c r="G23" s="3">
-        <v>-4300</v>
+        <v>-4900</v>
       </c>
       <c r="H23" s="3">
-        <v>-7500</v>
+        <v>-4400</v>
       </c>
       <c r="I23" s="3">
-        <v>-4400</v>
+        <v>-7700</v>
       </c>
       <c r="J23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1458,7 @@
         <v>-200</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
@@ -1421,10 +1467,10 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
@@ -1436,22 +1482,25 @@
         <v>-100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-4500</v>
-      </c>
       <c r="F26" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G26" s="3">
-        <v>-4200</v>
+        <v>-4800</v>
       </c>
       <c r="H26" s="3">
-        <v>-7300</v>
+        <v>-4300</v>
       </c>
       <c r="I26" s="3">
-        <v>-4300</v>
+        <v>-7500</v>
       </c>
       <c r="J26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-4500</v>
-      </c>
       <c r="F27" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G27" s="3">
-        <v>-4200</v>
+        <v>-4800</v>
       </c>
       <c r="H27" s="3">
-        <v>-7300</v>
+        <v>-4300</v>
       </c>
       <c r="I27" s="3">
-        <v>-4300</v>
+        <v>-7500</v>
       </c>
       <c r="J27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1673,8 +1734,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,13 +1846,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1794,87 +1864,93 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-4500</v>
-      </c>
       <c r="F33" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G33" s="3">
-        <v>-4200</v>
+        <v>-4800</v>
       </c>
       <c r="H33" s="3">
-        <v>-7300</v>
+        <v>-4300</v>
       </c>
       <c r="I33" s="3">
-        <v>-4300</v>
+        <v>-7500</v>
       </c>
       <c r="J33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-4500</v>
-      </c>
       <c r="F35" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G35" s="3">
-        <v>-4200</v>
+        <v>-4800</v>
       </c>
       <c r="H35" s="3">
-        <v>-7300</v>
+        <v>-4300</v>
       </c>
       <c r="I35" s="3">
-        <v>-4300</v>
+        <v>-7500</v>
       </c>
       <c r="J35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,84 +2143,88 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15100</v>
+        <v>11100</v>
       </c>
       <c r="E41" s="3">
-        <v>8100</v>
+        <v>15400</v>
       </c>
       <c r="F41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>5700</v>
+        <v>4700</v>
       </c>
       <c r="F42" s="3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="G42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J42" s="3">
         <v>3600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>2100</v>
       </c>
       <c r="K42" s="3">
         <v>2100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>2100</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2145,14 +2235,17 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2163,43 +2256,46 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
-        <v>2300</v>
-      </c>
       <c r="J43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2245,132 +2341,141 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21000</v>
+        <v>12200</v>
       </c>
       <c r="E46" s="3">
-        <v>14700</v>
+        <v>21400</v>
       </c>
       <c r="F46" s="3">
-        <v>7600</v>
+        <v>15000</v>
       </c>
       <c r="G46" s="3">
-        <v>5400</v>
+        <v>7800</v>
       </c>
       <c r="H46" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I46" s="3">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="J46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K46" s="3">
         <v>6600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="E47" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5600</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -2386,8 +2491,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2403,8 +2511,8 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2413,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -2428,60 +2536,66 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="E49" s="3">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="F49" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G49" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="H49" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="I49" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="J49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K49" s="3">
         <v>10400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,8 +2691,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2621,8 +2741,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41500</v>
+        <v>32600</v>
       </c>
       <c r="E54" s="3">
-        <v>28300</v>
+        <v>42300</v>
       </c>
       <c r="F54" s="3">
-        <v>16500</v>
+        <v>28900</v>
       </c>
       <c r="G54" s="3">
-        <v>14600</v>
+        <v>16800</v>
       </c>
       <c r="H54" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="I54" s="3">
-        <v>18300</v>
+        <v>15400</v>
       </c>
       <c r="J54" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K54" s="3">
         <v>20100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,55 +2883,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2845,24 +2979,27 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="E59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>1100</v>
-      </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2871,16 +3008,16 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2892,57 +3029,63 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="E60" s="3">
-        <v>1900</v>
+        <v>6100</v>
       </c>
       <c r="F60" s="3">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="G60" s="3">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="H60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2988,55 +3131,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3400</v>
-      </c>
       <c r="J62" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K62" s="3">
         <v>3600</v>
       </c>
       <c r="L62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M62" s="3">
         <v>3800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="E66" s="3">
-        <v>5700</v>
+        <v>14800</v>
       </c>
       <c r="F66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-30300</v>
+        <v>-39700</v>
       </c>
       <c r="E72" s="3">
-        <v>-29100</v>
+        <v>-30900</v>
       </c>
       <c r="F72" s="3">
-        <v>-24800</v>
+        <v>-29700</v>
       </c>
       <c r="G72" s="3">
-        <v>-20400</v>
+        <v>-25300</v>
       </c>
       <c r="H72" s="3">
-        <v>-16000</v>
+        <v>-20800</v>
       </c>
       <c r="I72" s="3">
-        <v>-13100</v>
+        <v>-16400</v>
       </c>
       <c r="J72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-124800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-108000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-107100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-107200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27000</v>
+        <v>18600</v>
       </c>
       <c r="E76" s="3">
-        <v>22600</v>
+        <v>27600</v>
       </c>
       <c r="F76" s="3">
-        <v>10100</v>
+        <v>23100</v>
       </c>
       <c r="G76" s="3">
-        <v>8800</v>
+        <v>10300</v>
       </c>
       <c r="H76" s="3">
-        <v>10100</v>
+        <v>8900</v>
       </c>
       <c r="I76" s="3">
-        <v>13100</v>
+        <v>10300</v>
       </c>
       <c r="J76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K76" s="3">
         <v>13700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-4500</v>
-      </c>
       <c r="F81" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G81" s="3">
-        <v>-4200</v>
+        <v>-4800</v>
       </c>
       <c r="H81" s="3">
-        <v>-7300</v>
+        <v>-4300</v>
       </c>
       <c r="I81" s="3">
-        <v>-4300</v>
+        <v>-7500</v>
       </c>
       <c r="J81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,16 +4028,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -3848,25 +4047,25 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E89" s="3">
         <v>2300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F89" s="3">
-        <v>-4300</v>
+        <v>-8900</v>
       </c>
       <c r="G89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
-        <v>-4800</v>
-      </c>
       <c r="I89" s="3">
-        <v>800</v>
+        <v>-4900</v>
       </c>
       <c r="J89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,34 +4398,35 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4217,16 +4438,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,13 +4546,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4337,37 +4567,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4700</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4618,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +4666,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,31 +4816,34 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>16900</v>
+        <v>3300</v>
       </c>
       <c r="F100" s="3">
-        <v>6000</v>
+        <v>17200</v>
       </c>
       <c r="G100" s="3">
-        <v>2700</v>
+        <v>6100</v>
       </c>
       <c r="H100" s="3">
         <v>2700</v>
       </c>
       <c r="I100" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4612,16 +4858,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>29300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4629,16 +4878,16 @@
         <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -4650,68 +4899,74 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5900</v>
+        <v>-9000</v>
       </c>
       <c r="E102" s="3">
-        <v>7600</v>
+        <v>6000</v>
       </c>
       <c r="F102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-400</v>
       </c>
       <c r="I102" s="3">
         <v>-400</v>
       </c>
       <c r="J102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -918,25 +918,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
-        <v>8500</v>
-      </c>
       <c r="F12" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="H12" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I12" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="J12" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K12" s="3">
         <v>3600</v>
@@ -1021,7 +1021,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K14" s="3">
         <v>1700</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="E17" s="3">
-        <v>12800</v>
+        <v>12100</v>
       </c>
       <c r="F17" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="G17" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="H17" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="I17" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="J17" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K17" s="3">
         <v>5500</v>
@@ -1188,22 +1188,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="G18" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="H18" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="I18" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="J18" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="K18" s="3">
         <v>-5500</v>
@@ -1270,10 +1270,10 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1308,22 +1308,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F21" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="G21" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="H21" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="I21" s="3">
-        <v>-6900</v>
+        <v>-6500</v>
       </c>
       <c r="J21" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="K21" s="3">
         <v>-4400</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F23" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="H23" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="I23" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="J23" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="K23" s="3">
         <v>-4700</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F26" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G26" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="H26" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="I26" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="J26" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="K26" s="3">
         <v>-4600</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F27" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G27" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="H27" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="I27" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="J27" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="K27" s="3">
         <v>-4600</v>
@@ -1870,10 +1870,10 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F33" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G33" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="H33" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="I33" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="J33" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="K33" s="3">
         <v>-4600</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F35" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G35" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="H35" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="I35" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="J35" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="K35" s="3">
         <v>-4600</v>
@@ -2150,19 +2150,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="E41" s="3">
-        <v>15400</v>
+        <v>14500</v>
       </c>
       <c r="F41" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
       </c>
       <c r="H41" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
@@ -2203,22 +2203,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F42" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G42" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="H42" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I42" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J42" s="3">
         <v>3400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3600</v>
       </c>
       <c r="K42" s="3">
         <v>2100</v>
@@ -2259,16 +2259,16 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>1200</v>
       </c>
       <c r="J43" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K43" s="3">
         <v>1800</v>
@@ -2350,10 +2350,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="E46" s="3">
-        <v>21400</v>
+        <v>20100</v>
       </c>
       <c r="F46" s="3">
-        <v>15000</v>
+        <v>14100</v>
       </c>
       <c r="G46" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="H46" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="I46" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J46" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="K46" s="3">
         <v>6600</v>
@@ -2450,13 +2450,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="E47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F47" s="3">
         <v>4900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>5200</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K47" s="3">
         <v>3100</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15300</v>
+        <v>14400</v>
       </c>
       <c r="E49" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="F49" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="G49" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="H49" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="I49" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="J49" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="K49" s="3">
         <v>10400</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32600</v>
+        <v>30600</v>
       </c>
       <c r="E54" s="3">
-        <v>42300</v>
+        <v>39800</v>
       </c>
       <c r="F54" s="3">
-        <v>28900</v>
+        <v>27200</v>
       </c>
       <c r="G54" s="3">
-        <v>16800</v>
+        <v>15800</v>
       </c>
       <c r="H54" s="3">
-        <v>14900</v>
+        <v>14100</v>
       </c>
       <c r="I54" s="3">
-        <v>15400</v>
+        <v>14500</v>
       </c>
       <c r="J54" s="3">
-        <v>18700</v>
+        <v>17500</v>
       </c>
       <c r="K54" s="3">
         <v>20100</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1800</v>
-      </c>
       <c r="G57" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H57" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J57" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K57" s="3">
         <v>1500</v>
@@ -2990,16 +2990,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E59" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E60" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="F60" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G60" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H60" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="I60" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J60" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>2800</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="E62" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="F62" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="G62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H62" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I62" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="J62" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K62" s="3">
         <v>3600</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="E66" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="F66" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="G66" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="H66" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="I66" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="J66" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K66" s="3">
         <v>6400</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39700</v>
+        <v>-37300</v>
       </c>
       <c r="E72" s="3">
-        <v>-30900</v>
+        <v>-29100</v>
       </c>
       <c r="F72" s="3">
-        <v>-29700</v>
+        <v>-27900</v>
       </c>
       <c r="G72" s="3">
-        <v>-25300</v>
+        <v>-23800</v>
       </c>
       <c r="H72" s="3">
-        <v>-20800</v>
+        <v>-19600</v>
       </c>
       <c r="I72" s="3">
-        <v>-16400</v>
+        <v>-15400</v>
       </c>
       <c r="J72" s="3">
-        <v>-13300</v>
+        <v>-12500</v>
       </c>
       <c r="K72" s="3">
         <v>-8900</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18600</v>
+        <v>17500</v>
       </c>
       <c r="E76" s="3">
-        <v>27600</v>
+        <v>25900</v>
       </c>
       <c r="F76" s="3">
-        <v>23100</v>
+        <v>21700</v>
       </c>
       <c r="G76" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="H76" s="3">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="I76" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="J76" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="K76" s="3">
         <v>13700</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F81" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G81" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="H81" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="I81" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="J81" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="K81" s="3">
         <v>-4600</v>
@@ -4050,7 +4050,7 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="E89" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F89" s="3">
-        <v>-8900</v>
+        <v>-8400</v>
       </c>
       <c r="G89" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="H89" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I89" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="J89" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="K89" s="3">
         <v>-600</v>
@@ -4555,7 +4555,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4828,22 +4828,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F100" s="3">
-        <v>17200</v>
+        <v>16200</v>
       </c>
       <c r="G100" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="H100" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I100" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J100" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4925,16 +4925,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9000</v>
+        <v>-8500</v>
       </c>
       <c r="E102" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="F102" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="G102" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H102" s="3">
         <v>700</v>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -918,25 +918,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E12" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F12" s="3">
         <v>2000</v>
       </c>
       <c r="G12" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H12" s="3">
         <v>2900</v>
       </c>
       <c r="I12" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J12" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K12" s="3">
         <v>3600</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K14" s="3">
         <v>1700</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="E17" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="F17" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G17" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H17" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I17" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="J17" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K17" s="3">
         <v>5500</v>
@@ -1188,22 +1188,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F18" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="G18" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H18" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I18" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="J18" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K18" s="3">
         <v>-5500</v>
@@ -1308,19 +1308,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F21" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="G21" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H21" s="3">
         <v>-3800</v>
       </c>
       <c r="I21" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="J21" s="3">
         <v>-3900</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="E23" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F23" s="3">
         <v>-4500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H23" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I23" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="J23" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K23" s="3">
         <v>-4700</v>
@@ -1555,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="E26" s="3">
         <v>-1400</v>
@@ -1564,16 +1564,16 @@
         <v>-4400</v>
       </c>
       <c r="G26" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H26" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I26" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="J26" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K26" s="3">
         <v>-4600</v>
@@ -1605,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="E27" s="3">
         <v>-1400</v>
@@ -1614,16 +1614,16 @@
         <v>-4400</v>
       </c>
       <c r="G27" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H27" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I27" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="J27" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K27" s="3">
         <v>-4600</v>
@@ -1905,7 +1905,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="E33" s="3">
         <v>-1400</v>
@@ -1914,16 +1914,16 @@
         <v>-4400</v>
       </c>
       <c r="G33" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H33" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I33" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="J33" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K33" s="3">
         <v>-4600</v>
@@ -2005,7 +2005,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="E35" s="3">
         <v>-1400</v>
@@ -2014,16 +2014,16 @@
         <v>-4400</v>
       </c>
       <c r="G35" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H35" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I35" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="J35" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K35" s="3">
         <v>-4600</v>
@@ -2150,13 +2150,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="E41" s="3">
-        <v>14500</v>
+        <v>14700</v>
       </c>
       <c r="F41" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
@@ -2206,19 +2206,19 @@
         <v>4500</v>
       </c>
       <c r="F42" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G42" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H42" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I42" s="3">
         <v>3200</v>
       </c>
       <c r="J42" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K42" s="3">
         <v>2100</v>
@@ -2268,7 +2268,7 @@
         <v>1200</v>
       </c>
       <c r="J43" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K43" s="3">
         <v>1800</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="E46" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="F46" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="G46" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="H46" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I46" s="3">
         <v>5200</v>
       </c>
       <c r="J46" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K46" s="3">
         <v>6600</v>
@@ -2453,10 +2453,10 @@
         <v>4800</v>
       </c>
       <c r="E47" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F47" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="E49" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="F49" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="G49" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="H49" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="I49" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="J49" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="K49" s="3">
         <v>10400</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30600</v>
+        <v>31200</v>
       </c>
       <c r="E54" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="F54" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="G54" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="H54" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="I54" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="J54" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="K54" s="3">
         <v>20100</v>
@@ -2896,13 +2896,13 @@
         <v>3400</v>
       </c>
       <c r="F57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G57" s="3">
         <v>2400</v>
       </c>
       <c r="H57" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I57" s="3">
         <v>1200</v>
@@ -2990,10 +2990,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E59" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3040,10 +3040,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E60" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F60" s="3">
         <v>1900</v>
@@ -3052,7 +3052,7 @@
         <v>3500</v>
       </c>
       <c r="H60" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
@@ -3140,10 +3140,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="E62" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F62" s="3">
         <v>3600</v>
@@ -3152,13 +3152,13 @@
         <v>2700</v>
       </c>
       <c r="H62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I62" s="3">
         <v>3500</v>
       </c>
       <c r="J62" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K62" s="3">
         <v>3600</v>
@@ -3340,22 +3340,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="E66" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="F66" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G66" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H66" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I66" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J66" s="3">
         <v>5000</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-37300</v>
+        <v>-38000</v>
       </c>
       <c r="E72" s="3">
-        <v>-29100</v>
+        <v>-29600</v>
       </c>
       <c r="F72" s="3">
-        <v>-27900</v>
+        <v>-28400</v>
       </c>
       <c r="G72" s="3">
-        <v>-23800</v>
+        <v>-24200</v>
       </c>
       <c r="H72" s="3">
-        <v>-19600</v>
+        <v>-20000</v>
       </c>
       <c r="I72" s="3">
-        <v>-15400</v>
+        <v>-15700</v>
       </c>
       <c r="J72" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="K72" s="3">
         <v>-8900</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="E76" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="F76" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="G76" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="H76" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="I76" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J76" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="K76" s="3">
         <v>13700</v>
@@ -3965,7 +3965,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="E81" s="3">
         <v>-1400</v>
@@ -3974,16 +3974,16 @@
         <v>-4400</v>
       </c>
       <c r="G81" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H81" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I81" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="J81" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K81" s="3">
         <v>-4600</v>
@@ -4050,7 +4050,7 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -4335,13 +4335,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="E89" s="3">
         <v>2200</v>
       </c>
       <c r="F89" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="G89" s="3">
         <v>-4200</v>
@@ -4350,7 +4350,7 @@
         <v>-1900</v>
       </c>
       <c r="I89" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="J89" s="3">
         <v>-3000</v>
@@ -4831,19 +4831,19 @@
         <v>3100</v>
       </c>
       <c r="F100" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="G100" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H100" s="3">
         <v>2600</v>
       </c>
       <c r="I100" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J100" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4925,13 +4925,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8500</v>
+        <v>-8700</v>
       </c>
       <c r="E102" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F102" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="G102" s="3">
         <v>1600</v>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -763,13 +767,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -790,10 +794,13 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,8 +849,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,8 +902,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,58 +925,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F12" s="3">
         <v>7700</v>
       </c>
-      <c r="E12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2000</v>
-      </c>
       <c r="G12" s="3">
-        <v>3700</v>
+        <v>1900</v>
       </c>
       <c r="H12" s="3">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="I12" s="3">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="J12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,8 +1029,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,49 +1041,52 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1103,8 +1126,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,58 +1155,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9300</v>
+        <v>7700</v>
       </c>
       <c r="E17" s="3">
-        <v>12300</v>
+        <v>8800</v>
       </c>
       <c r="F17" s="3">
-        <v>4600</v>
+        <v>11600</v>
       </c>
       <c r="G17" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="H17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>7400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>5900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>5700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,49 +1218,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1700</v>
+        <v>-8800</v>
       </c>
       <c r="F18" s="3">
-        <v>-4600</v>
+        <v>-1600</v>
       </c>
       <c r="G18" s="3">
-        <v>-4700</v>
+        <v>-4300</v>
       </c>
       <c r="H18" s="3">
-        <v>-4100</v>
+        <v>-4500</v>
       </c>
       <c r="I18" s="3">
-        <v>-6100</v>
+        <v>-3900</v>
       </c>
       <c r="J18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,8 +1282,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1267,40 +1301,43 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,49 +1345,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1200</v>
+        <v>-8200</v>
       </c>
       <c r="F21" s="3">
-        <v>-4200</v>
+        <v>-1100</v>
       </c>
       <c r="G21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1381,8 +1421,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1399,69 +1439,75 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9300</v>
+        <v>-7700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1700</v>
+        <v>-8800</v>
       </c>
       <c r="F23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
       </c>
       <c r="F24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
@@ -1470,10 +1516,10 @@
         <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
@@ -1485,22 +1531,25 @@
         <v>-100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9100</v>
+        <v>-7700</v>
       </c>
       <c r="E26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9100</v>
+        <v>-7700</v>
       </c>
       <c r="E27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1737,8 +1798,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,8 +1916,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1867,90 +1937,96 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9100</v>
+        <v>-7700</v>
       </c>
       <c r="E33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9100</v>
+        <v>-7700</v>
       </c>
       <c r="E35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10600</v>
+        <v>4900</v>
       </c>
       <c r="E41" s="3">
-        <v>14700</v>
+        <v>10100</v>
       </c>
       <c r="F41" s="3">
-        <v>7900</v>
+        <v>14000</v>
       </c>
       <c r="G41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>800</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
-        <v>900</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2203,31 +2293,31 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>5600</v>
+        <v>4300</v>
       </c>
       <c r="G42" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H42" s="3">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="I42" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K42" s="3">
         <v>3500</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2100</v>
       </c>
       <c r="L42" s="3">
         <v>2100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="M42" s="3">
+        <v>2100</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2238,14 +2328,17 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2259,43 +2352,46 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
-        <v>1200</v>
-      </c>
       <c r="J43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2344,108 +2440,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
-        <v>1200</v>
-      </c>
       <c r="F45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11700</v>
+        <v>5000</v>
       </c>
       <c r="E46" s="3">
-        <v>20500</v>
+        <v>11100</v>
       </c>
       <c r="F46" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K46" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N46" s="3">
         <v>14400</v>
       </c>
-      <c r="G46" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>6600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>14400</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2453,32 +2558,32 @@
         <v>4800</v>
       </c>
       <c r="E47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G47" s="3">
         <v>4700</v>
       </c>
-      <c r="F47" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5600</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
@@ -2494,25 +2599,28 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2524,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -2539,63 +2647,69 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14700</v>
+        <v>13300</v>
       </c>
       <c r="E49" s="3">
-        <v>15400</v>
+        <v>13900</v>
       </c>
       <c r="F49" s="3">
-        <v>8300</v>
+        <v>14600</v>
       </c>
       <c r="G49" s="3">
-        <v>8700</v>
+        <v>7900</v>
       </c>
       <c r="H49" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="I49" s="3">
-        <v>9400</v>
+        <v>8600</v>
       </c>
       <c r="J49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K49" s="3">
         <v>9800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,8 +2811,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2744,8 +2864,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31200</v>
+        <v>23100</v>
       </c>
       <c r="E54" s="3">
-        <v>40500</v>
+        <v>29600</v>
       </c>
       <c r="F54" s="3">
-        <v>27700</v>
+        <v>38400</v>
       </c>
       <c r="G54" s="3">
-        <v>16100</v>
+        <v>26200</v>
       </c>
       <c r="H54" s="3">
-        <v>14300</v>
+        <v>15300</v>
       </c>
       <c r="I54" s="3">
-        <v>14800</v>
+        <v>13600</v>
       </c>
       <c r="J54" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K54" s="3">
         <v>17900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,58 +3014,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
-        <v>3400</v>
-      </c>
       <c r="F57" s="3">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="G57" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="H57" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="I57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2982,27 +3116,30 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3700</v>
+        <v>2100</v>
       </c>
       <c r="E59" s="3">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>1100</v>
-      </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3011,16 +3148,16 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3032,60 +3169,66 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5300</v>
+        <v>3100</v>
       </c>
       <c r="E60" s="3">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="F60" s="3">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="G60" s="3">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="H60" s="3">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3134,58 +3277,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="E62" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="F62" s="3">
-        <v>3600</v>
+        <v>7900</v>
       </c>
       <c r="G62" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="H62" s="3">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="I62" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J62" s="3">
         <v>3400</v>
       </c>
       <c r="K62" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="L62" s="3">
         <v>3600</v>
       </c>
       <c r="M62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N62" s="3">
         <v>3800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F66" s="3">
         <v>13400</v>
       </c>
-      <c r="E66" s="3">
-        <v>14100</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4900</v>
-      </c>
       <c r="J66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38000</v>
+        <v>-43000</v>
       </c>
       <c r="E72" s="3">
-        <v>-29600</v>
+        <v>-36000</v>
       </c>
       <c r="F72" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="G72" s="3">
-        <v>-24200</v>
+        <v>-26900</v>
       </c>
       <c r="H72" s="3">
-        <v>-20000</v>
+        <v>-22900</v>
       </c>
       <c r="I72" s="3">
-        <v>-15700</v>
+        <v>-18900</v>
       </c>
       <c r="J72" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-12800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-124800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-108000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-107100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-107000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17800</v>
+        <v>12300</v>
       </c>
       <c r="E76" s="3">
-        <v>26400</v>
+        <v>16900</v>
       </c>
       <c r="F76" s="3">
-        <v>22100</v>
+        <v>25000</v>
       </c>
       <c r="G76" s="3">
-        <v>9900</v>
+        <v>21000</v>
       </c>
       <c r="H76" s="3">
-        <v>8600</v>
+        <v>9300</v>
       </c>
       <c r="I76" s="3">
-        <v>9900</v>
+        <v>8100</v>
       </c>
       <c r="J76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K76" s="3">
         <v>12800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9100</v>
+        <v>-7700</v>
       </c>
       <c r="E81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,19 +4227,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4050,25 +4249,25 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
+        <v>600</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="E89" s="3">
-        <v>2200</v>
+        <v>-7500</v>
       </c>
       <c r="F89" s="3">
-        <v>-8600</v>
+        <v>2100</v>
       </c>
       <c r="G89" s="3">
-        <v>-4200</v>
+        <v>-8100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1900</v>
+        <v>-4000</v>
       </c>
       <c r="I89" s="3">
-        <v>-4700</v>
+        <v>-1800</v>
       </c>
       <c r="J89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,8 +4619,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4425,11 +4646,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4441,16 +4662,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,16 +4776,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4570,37 +4800,40 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,8 +4852,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4669,8 +4903,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,35 +5062,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>16500</v>
+        <v>3000</v>
       </c>
       <c r="G100" s="3">
-        <v>5900</v>
+        <v>15600</v>
       </c>
       <c r="H100" s="3">
-        <v>2600</v>
+        <v>5600</v>
       </c>
       <c r="I100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4861,16 +5107,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>29300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4881,16 +5130,16 @@
         <v>400</v>
       </c>
       <c r="F101" s="3">
+        <v>400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -4902,71 +5151,77 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8700</v>
+        <v>-5200</v>
       </c>
       <c r="E102" s="3">
-        <v>5700</v>
+        <v>-8200</v>
       </c>
       <c r="F102" s="3">
-        <v>7400</v>
+        <v>5400</v>
       </c>
       <c r="G102" s="3">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="H102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>10100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -770,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -797,10 +801,13 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,8 +859,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +915,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,61 +939,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
-        <v>7300</v>
-      </c>
       <c r="F12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G12" s="3">
         <v>7700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1049,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,52 +1061,55 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1129,8 +1152,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,61 +1182,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7700</v>
       </c>
-      <c r="E17" s="3">
-        <v>8800</v>
-      </c>
       <c r="F17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1218,52 +1248,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-8800</v>
+        <v>-7700</v>
       </c>
       <c r="F18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,8 +1316,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1304,40 +1338,43 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,52 +1382,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-8200</v>
+        <v>-7100</v>
       </c>
       <c r="F21" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-4000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1424,8 +1464,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1442,75 +1482,81 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-4500</v>
-      </c>
       <c r="I23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
       </c>
       <c r="G24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
@@ -1519,10 +1565,10 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
@@ -1534,22 +1580,25 @@
         <v>-100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-8600</v>
-      </c>
       <c r="F26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-8600</v>
-      </c>
       <c r="F27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1801,8 +1862,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,8 +1986,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1940,93 +2010,99 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-8600</v>
-      </c>
       <c r="F33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-8600</v>
-      </c>
       <c r="F35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,96 +2317,100 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
-        <v>10100</v>
-      </c>
       <c r="F41" s="3">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="G41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H41" s="3">
         <v>7500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>32200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>4300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5300</v>
       </c>
-      <c r="H42" s="3">
-        <v>5000</v>
-      </c>
       <c r="I42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J42" s="3">
         <v>3400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2100</v>
       </c>
       <c r="M42" s="3">
         <v>2100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3">
+        <v>2100</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
@@ -2331,67 +2421,73 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2443,150 +2539,159 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E46" s="3">
         <v>5000</v>
       </c>
-      <c r="E46" s="3">
-        <v>11100</v>
-      </c>
       <c r="F46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G46" s="3">
         <v>19400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>5000</v>
       </c>
       <c r="J46" s="3">
         <v>5000</v>
       </c>
       <c r="K46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L46" s="3">
         <v>6100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E47" s="3">
         <v>4800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4700</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5600</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
@@ -2602,8 +2707,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2635,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -2650,66 +2758,72 @@
         <v>400</v>
       </c>
       <c r="R48" s="3">
+        <v>400</v>
+      </c>
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13300</v>
+        <v>12000</v>
       </c>
       <c r="E49" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F49" s="3">
         <v>13900</v>
       </c>
-      <c r="F49" s="3">
-        <v>14600</v>
-      </c>
       <c r="G49" s="3">
-        <v>7900</v>
+        <v>14500</v>
       </c>
       <c r="H49" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I49" s="3">
         <v>8200</v>
       </c>
-      <c r="I49" s="3">
-        <v>8600</v>
-      </c>
       <c r="J49" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K49" s="3">
         <v>8900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,8 +2931,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2867,8 +2987,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23100</v>
+        <v>18300</v>
       </c>
       <c r="E54" s="3">
-        <v>29600</v>
+        <v>22400</v>
       </c>
       <c r="F54" s="3">
-        <v>38400</v>
+        <v>29400</v>
       </c>
       <c r="G54" s="3">
-        <v>26200</v>
+        <v>38300</v>
       </c>
       <c r="H54" s="3">
-        <v>15300</v>
+        <v>26100</v>
       </c>
       <c r="I54" s="3">
-        <v>13600</v>
+        <v>15200</v>
       </c>
       <c r="J54" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K54" s="3">
         <v>14000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,84 +3145,88 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>900</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3119,30 +3253,33 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3151,16 +3288,16 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3172,63 +3309,69 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
-        <v>3400</v>
-      </c>
       <c r="I60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3280,28 +3423,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7700</v>
+        <v>7000</v>
       </c>
       <c r="E62" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="F62" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="G62" s="3">
-        <v>3500</v>
+        <v>7800</v>
       </c>
       <c r="H62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I62" s="3">
         <v>2600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3400</v>
       </c>
       <c r="J62" s="3">
         <v>3400</v>
@@ -3310,31 +3456,34 @@
         <v>3400</v>
       </c>
       <c r="L62" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="M62" s="3">
         <v>3600</v>
       </c>
       <c r="N62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O62" s="3">
         <v>3800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="E66" s="3">
-        <v>12700</v>
+        <v>10400</v>
       </c>
       <c r="F66" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="G66" s="3">
-        <v>5300</v>
+        <v>13300</v>
       </c>
       <c r="H66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
-        <v>5500</v>
-      </c>
       <c r="J66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43000</v>
+        <v>-51400</v>
       </c>
       <c r="E72" s="3">
-        <v>-36000</v>
+        <v>-43100</v>
       </c>
       <c r="F72" s="3">
-        <v>-28100</v>
+        <v>-35800</v>
       </c>
       <c r="G72" s="3">
-        <v>-26900</v>
+        <v>-28000</v>
       </c>
       <c r="H72" s="3">
-        <v>-22900</v>
+        <v>-26800</v>
       </c>
       <c r="I72" s="3">
-        <v>-18900</v>
+        <v>-22800</v>
       </c>
       <c r="J72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-124800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-108000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-107200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-107000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12300</v>
+        <v>7600</v>
       </c>
       <c r="E76" s="3">
-        <v>16900</v>
+        <v>12000</v>
       </c>
       <c r="F76" s="3">
-        <v>25000</v>
+        <v>16800</v>
       </c>
       <c r="G76" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="N76" s="3">
+        <v>18400</v>
+      </c>
+      <c r="O76" s="3">
+        <v>18700</v>
+      </c>
+      <c r="P76" s="3">
         <v>21000</v>
       </c>
-      <c r="H76" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>12800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>13700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>18400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>18700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>21000</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-8600</v>
-      </c>
       <c r="F81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4400</v>
-      </c>
       <c r="I81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4426,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,10 +4439,10 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -4252,25 +4451,25 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7500</v>
+        <v>-5800</v>
       </c>
       <c r="E89" s="3">
         <v>-7500</v>
       </c>
       <c r="F89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G89" s="3">
         <v>2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,8 +4840,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4649,11 +4870,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4665,16 +4886,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,20 +5006,23 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4803,37 +5033,40 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-4700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4906,8 +5140,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,38 +5308,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15600</v>
       </c>
-      <c r="H100" s="3">
-        <v>5600</v>
-      </c>
       <c r="I100" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="J100" s="3">
         <v>2500</v>
       </c>
       <c r="K100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5110,21 +5356,24 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>29300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>400</v>
@@ -5133,16 +5382,16 @@
         <v>400</v>
       </c>
       <c r="G101" s="3">
+        <v>400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5154,74 +5403,80 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G12" s="3">
         <v>7700</v>
@@ -1189,13 +1189,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="E17" s="3">
         <v>7700</v>
       </c>
       <c r="F17" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="G17" s="3">
         <v>11600</v>
@@ -1251,7 +1251,7 @@
         <v>-7700</v>
       </c>
       <c r="F18" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="G18" s="3">
         <v>-1600</v>
@@ -1391,7 +1391,7 @@
         <v>-1100</v>
       </c>
       <c r="H21" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="I21" s="3">
         <v>-4100</v>
@@ -1491,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="E23" s="3">
         <v>-7700</v>
@@ -1506,7 +1506,7 @@
         <v>-4300</v>
       </c>
       <c r="I23" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="J23" s="3">
         <v>-4000</v>
@@ -1674,7 +1674,7 @@
         <v>-4200</v>
       </c>
       <c r="I26" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J26" s="3">
         <v>-3900</v>
@@ -1730,7 +1730,7 @@
         <v>-4200</v>
       </c>
       <c r="I27" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J27" s="3">
         <v>-3900</v>
@@ -2066,7 +2066,7 @@
         <v>-4200</v>
       </c>
       <c r="I33" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J33" s="3">
         <v>-3900</v>
@@ -2178,7 +2178,7 @@
         <v>-4200</v>
       </c>
       <c r="I35" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J35" s="3">
         <v>-3900</v>
@@ -2330,10 +2330,10 @@
         <v>4900</v>
       </c>
       <c r="F41" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="G41" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="H41" s="3">
         <v>7500</v>
@@ -2395,7 +2395,7 @@
         <v>5300</v>
       </c>
       <c r="I42" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J42" s="3">
         <v>3400</v>
@@ -2442,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2610,7 +2610,7 @@
         <v>5000</v>
       </c>
       <c r="F46" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="G46" s="3">
         <v>19400</v>
@@ -2660,7 +2660,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
         <v>4800</v>
@@ -2775,22 +2775,22 @@
         <v>12000</v>
       </c>
       <c r="E49" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="F49" s="3">
         <v>13900</v>
       </c>
       <c r="G49" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="H49" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="I49" s="3">
         <v>8200</v>
       </c>
       <c r="J49" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="K49" s="3">
         <v>8900</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="E54" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="F54" s="3">
-        <v>29400</v>
+        <v>29600</v>
       </c>
       <c r="G54" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="H54" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="I54" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="J54" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="K54" s="3">
         <v>14000</v>
@@ -3158,7 +3158,7 @@
         <v>1000</v>
       </c>
       <c r="F57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G57" s="3">
         <v>3300</v>
@@ -3335,7 +3335,7 @@
         <v>1800</v>
       </c>
       <c r="I60" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J60" s="3">
         <v>2000</v>
@@ -3432,19 +3432,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E62" s="3">
         <v>7300</v>
       </c>
       <c r="F62" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G62" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H62" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I62" s="3">
         <v>2600</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="E66" s="3">
         <v>10400</v>
       </c>
       <c r="F66" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="G66" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="H66" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I66" s="3">
         <v>5900</v>
       </c>
       <c r="J66" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K66" s="3">
         <v>4600</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51400</v>
+        <v>-51600</v>
       </c>
       <c r="E72" s="3">
-        <v>-43100</v>
+        <v>-43200</v>
       </c>
       <c r="F72" s="3">
-        <v>-35800</v>
+        <v>-36000</v>
       </c>
       <c r="G72" s="3">
-        <v>-28000</v>
+        <v>-28100</v>
       </c>
       <c r="H72" s="3">
-        <v>-26800</v>
+        <v>-26900</v>
       </c>
       <c r="I72" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="J72" s="3">
-        <v>-18800</v>
+        <v>-18900</v>
       </c>
       <c r="K72" s="3">
         <v>-14900</v>
@@ -4182,19 +4182,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E76" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="F76" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="G76" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="H76" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="I76" s="3">
         <v>9300</v>
@@ -4370,7 +4370,7 @@
         <v>-4200</v>
       </c>
       <c r="I81" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J81" s="3">
         <v>-3900</v>
@@ -5320,7 +5320,7 @@
         <v>3900</v>
       </c>
       <c r="E100" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>15600</v>
       </c>
       <c r="I100" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J100" s="3">
         <v>2500</v>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>10100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -777,13 +781,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -804,10 +808,13 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -862,8 +869,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +928,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,64 +953,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6200</v>
+        <v>4000</v>
       </c>
       <c r="E12" s="3">
         <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>7300</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="3">
-        <v>7700</v>
+        <v>7100</v>
       </c>
       <c r="H12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S12" s="3">
         <v>3500</v>
       </c>
-      <c r="J12" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,64 +1069,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1155,8 +1178,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,64 +1209,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>9100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>7700</v>
+        <v>8900</v>
       </c>
       <c r="F17" s="3">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="G17" s="3">
-        <v>11600</v>
+        <v>8800</v>
       </c>
       <c r="H17" s="3">
-        <v>4300</v>
+        <v>11400</v>
       </c>
       <c r="I17" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="J17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1248,55 +1278,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-7700</v>
+        <v>-8900</v>
       </c>
       <c r="F18" s="3">
-        <v>-9000</v>
+        <v>-7600</v>
       </c>
       <c r="G18" s="3">
-        <v>-1600</v>
+        <v>-8800</v>
       </c>
       <c r="H18" s="3">
-        <v>-4300</v>
+        <v>-1500</v>
       </c>
       <c r="I18" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="J18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,8 +1350,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1341,40 +1375,43 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1382,55 +1419,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-7100</v>
+        <v>-8300</v>
       </c>
       <c r="F21" s="3">
-        <v>-8300</v>
+        <v>-6900</v>
       </c>
       <c r="G21" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1467,8 +1507,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1485,64 +1525,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9100</v>
+        <v>-4500</v>
       </c>
       <c r="E23" s="3">
-        <v>-7700</v>
+        <v>-8900</v>
       </c>
       <c r="F23" s="3">
-        <v>-8900</v>
+        <v>-7600</v>
       </c>
       <c r="G23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1550,16 +1596,16 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>-200</v>
       </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1568,10 +1614,10 @@
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
@@ -1583,22 +1629,25 @@
         <v>-100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-9000</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-7700</v>
+        <v>-8800</v>
       </c>
       <c r="F26" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1400</v>
+        <v>-8600</v>
       </c>
       <c r="H26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-9000</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-7700</v>
+        <v>-8800</v>
       </c>
       <c r="F27" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1400</v>
+        <v>-8600</v>
       </c>
       <c r="H27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1865,8 +1926,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,8 +2056,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2013,96 +2083,102 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-9000</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-7700</v>
+        <v>-8800</v>
       </c>
       <c r="F33" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1400</v>
+        <v>-8600</v>
       </c>
       <c r="H33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-9000</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-7700</v>
+        <v>-8800</v>
       </c>
       <c r="F35" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1400</v>
+        <v>-8600</v>
       </c>
       <c r="H35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,102 +2404,106 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="E41" s="3">
-        <v>4900</v>
+        <v>2800</v>
       </c>
       <c r="F41" s="3">
-        <v>10100</v>
+        <v>4800</v>
       </c>
       <c r="G41" s="3">
-        <v>14000</v>
+        <v>9800</v>
       </c>
       <c r="H41" s="3">
-        <v>7500</v>
+        <v>13700</v>
       </c>
       <c r="I41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>5300</v>
+        <v>4200</v>
       </c>
       <c r="I42" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3500</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2100</v>
       </c>
       <c r="N42" s="3">
         <v>2100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="O42" s="3">
+        <v>2100</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
@@ -2424,70 +2514,76 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2542,159 +2638,168 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>1000</v>
-      </c>
       <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
-        <v>400</v>
-      </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="E46" s="3">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="F46" s="3">
-        <v>11100</v>
+        <v>4900</v>
       </c>
       <c r="G46" s="3">
-        <v>19400</v>
+        <v>10800</v>
       </c>
       <c r="H46" s="3">
-        <v>13600</v>
+        <v>19100</v>
       </c>
       <c r="I46" s="3">
-        <v>7000</v>
+        <v>13300</v>
       </c>
       <c r="J46" s="3">
-        <v>5000</v>
+        <v>6900</v>
       </c>
       <c r="K46" s="3">
         <v>5000</v>
       </c>
       <c r="L46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M46" s="3">
         <v>6100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="F47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I47" s="3">
         <v>4600</v>
       </c>
-      <c r="G47" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5600</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
@@ -2710,8 +2815,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2746,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
@@ -2761,69 +2869,75 @@
         <v>400</v>
       </c>
       <c r="S48" s="3">
+        <v>400</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="E49" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="F49" s="3">
-        <v>13900</v>
+        <v>12400</v>
       </c>
       <c r="G49" s="3">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="H49" s="3">
-        <v>7900</v>
+        <v>14300</v>
       </c>
       <c r="I49" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="J49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K49" s="3">
         <v>8600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,8 +3051,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2990,8 +3110,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="E54" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="F54" s="3">
-        <v>29600</v>
+        <v>22100</v>
       </c>
       <c r="G54" s="3">
-        <v>38400</v>
+        <v>29000</v>
       </c>
       <c r="H54" s="3">
-        <v>26200</v>
+        <v>37700</v>
       </c>
       <c r="I54" s="3">
-        <v>15300</v>
+        <v>25700</v>
       </c>
       <c r="J54" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K54" s="3">
         <v>13600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,75 +3276,79 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -3228,8 +3362,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3256,33 +3390,36 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
-        <v>2100</v>
-      </c>
       <c r="F59" s="3">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3291,16 +3428,16 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3312,66 +3449,72 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3700</v>
+        <v>4900</v>
       </c>
       <c r="E60" s="3">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="F60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="P60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>5000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3426,31 +3569,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7100</v>
+        <v>5500</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="F62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H62" s="3">
         <v>7700</v>
       </c>
-      <c r="G62" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3500</v>
-      </c>
       <c r="I62" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="J62" s="3">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K62" s="3">
         <v>3400</v>
@@ -3459,31 +3605,34 @@
         <v>3400</v>
       </c>
       <c r="M62" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="N62" s="3">
         <v>3600</v>
       </c>
       <c r="O62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P62" s="3">
         <v>3800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="E66" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="F66" s="3">
-        <v>12700</v>
+        <v>10200</v>
       </c>
       <c r="G66" s="3">
-        <v>13400</v>
+        <v>12400</v>
       </c>
       <c r="H66" s="3">
-        <v>5300</v>
+        <v>13100</v>
       </c>
       <c r="I66" s="3">
-        <v>5900</v>
+        <v>5100</v>
       </c>
       <c r="J66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51600</v>
+        <v>-55400</v>
       </c>
       <c r="E72" s="3">
-        <v>-43200</v>
+        <v>-50600</v>
       </c>
       <c r="F72" s="3">
-        <v>-36000</v>
+        <v>-42400</v>
       </c>
       <c r="G72" s="3">
-        <v>-28100</v>
+        <v>-35300</v>
       </c>
       <c r="H72" s="3">
-        <v>-26900</v>
+        <v>-27500</v>
       </c>
       <c r="I72" s="3">
-        <v>-22900</v>
+        <v>-26400</v>
       </c>
       <c r="J72" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-124800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-108000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-107100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-107200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-107000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E76" s="3">
-        <v>12100</v>
+        <v>7500</v>
       </c>
       <c r="F76" s="3">
-        <v>16900</v>
+        <v>11800</v>
       </c>
       <c r="G76" s="3">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="H76" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="O76" s="3">
+        <v>18400</v>
+      </c>
+      <c r="P76" s="3">
+        <v>18700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>21000</v>
       </c>
-      <c r="I76" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>8100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>12800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>13700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>18400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>18700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>21000</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-9000</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-7700</v>
+        <v>-8800</v>
       </c>
       <c r="F81" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1400</v>
+        <v>-8600</v>
       </c>
       <c r="H81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,13 +4625,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>600</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
@@ -4442,10 +4641,10 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -4454,25 +4653,25 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5800</v>
+        <v>-4100</v>
       </c>
       <c r="E89" s="3">
-        <v>-7500</v>
+        <v>-5700</v>
       </c>
       <c r="F89" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G89" s="3">
-        <v>2100</v>
+        <v>-7400</v>
       </c>
       <c r="H89" s="3">
-        <v>-8100</v>
+        <v>2000</v>
       </c>
       <c r="I89" s="3">
-        <v>-4000</v>
+        <v>-8000</v>
       </c>
       <c r="J89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,8 +5061,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4873,11 +5094,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4889,16 +5110,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,8 +5236,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5018,14 +5248,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5036,37 +5266,40 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,8 +5320,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5143,8 +5377,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,41 +5554,44 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="E100" s="3">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G100" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>15600</v>
+        <v>2900</v>
       </c>
       <c r="I100" s="3">
-        <v>5600</v>
+        <v>15300</v>
       </c>
       <c r="J100" s="3">
-        <v>2500</v>
+        <v>5400</v>
       </c>
       <c r="K100" s="3">
         <v>2500</v>
       </c>
       <c r="L100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5359,24 +5605,27 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>29300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>400</v>
@@ -5385,16 +5634,16 @@
         <v>400</v>
       </c>
       <c r="H101" s="3">
+        <v>400</v>
+      </c>
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5406,77 +5655,83 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-2000</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>-5200</v>
+        <v>-1900</v>
       </c>
       <c r="F102" s="3">
-        <v>-8200</v>
+        <v>-5100</v>
       </c>
       <c r="G102" s="3">
-        <v>5400</v>
+        <v>-8000</v>
       </c>
       <c r="H102" s="3">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="I102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>26400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KZIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>KZIA</t>
   </si>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G12" s="3">
         <v>7100</v>
@@ -1077,14 +1077,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-2200</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1215,17 +1215,17 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>4600</v>
       </c>
       <c r="E17" s="3">
         <v>8900</v>
       </c>
       <c r="F17" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G17" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="H17" s="3">
         <v>11400</v>
@@ -1281,10 +1281,10 @@
         <v>-8900</v>
       </c>
       <c r="F18" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="G18" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="H18" s="3">
         <v>-1500</v>
@@ -1422,7 +1422,7 @@
         <v>-8300</v>
       </c>
       <c r="F21" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="G21" s="3">
         <v>-8100</v>
@@ -1540,13 +1540,13 @@
         <v>-8900</v>
       </c>
       <c r="F23" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="G23" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="H23" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I23" s="3">
         <v>-4200</v>
@@ -1710,17 +1710,17 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-4500</v>
       </c>
       <c r="E26" s="3">
         <v>-8800</v>
       </c>
       <c r="F26" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="G26" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="H26" s="3">
         <v>-1300</v>
@@ -1769,17 +1769,17 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-4500</v>
       </c>
       <c r="E27" s="3">
         <v>-8800</v>
       </c>
       <c r="F27" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="G27" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="H27" s="3">
         <v>-1300</v>
@@ -2123,17 +2123,17 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-4500</v>
       </c>
       <c r="E33" s="3">
         <v>-8800</v>
       </c>
       <c r="F33" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="G33" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="H33" s="3">
         <v>-1300</v>
@@ -2241,17 +2241,17 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-4500</v>
       </c>
       <c r="E35" s="3">
         <v>-8800</v>
       </c>
       <c r="F35" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="G35" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="H35" s="3">
         <v>-1300</v>
@@ -2423,7 +2423,7 @@
         <v>9800</v>
       </c>
       <c r="H41" s="3">
-        <v>13700</v>
+        <v>31500</v>
       </c>
       <c r="I41" s="3">
         <v>7400</v>
@@ -2653,7 +2653,7 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
@@ -2712,13 +2712,13 @@
         <v>3800</v>
       </c>
       <c r="F46" s="3">
-        <v>4900</v>
+        <v>6100</v>
       </c>
       <c r="G46" s="3">
         <v>10800</v>
       </c>
       <c r="H46" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="I46" s="3">
         <v>13300</v>
@@ -2895,7 +2895,7 @@
         <v>13600</v>
       </c>
       <c r="H49" s="3">
-        <v>14300</v>
+        <v>27800</v>
       </c>
       <c r="I49" s="3">
         <v>7700</v>
@@ -3059,26 +3059,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         <v>18000</v>
       </c>
       <c r="F54" s="3">
-        <v>22100</v>
+        <v>23200</v>
       </c>
       <c r="G54" s="3">
-        <v>29000</v>
+        <v>28900</v>
       </c>
       <c r="H54" s="3">
-        <v>37700</v>
+        <v>36900</v>
       </c>
       <c r="I54" s="3">
-        <v>25700</v>
+        <v>25600</v>
       </c>
       <c r="J54" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="K54" s="3">
         <v>13600</v>
@@ -3348,7 +3348,7 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -3407,13 +3407,13 @@
         <v>1800</v>
       </c>
       <c r="F59" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="G59" s="3">
         <v>3400</v>
       </c>
       <c r="H59" s="3">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3466,13 +3466,13 @@
         <v>3600</v>
       </c>
       <c r="F60" s="3">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="G60" s="3">
         <v>4900</v>
       </c>
       <c r="H60" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="I60" s="3">
         <v>1800</v>
@@ -3584,13 +3584,13 @@
         <v>6900</v>
       </c>
       <c r="F62" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="G62" s="3">
         <v>7500</v>
       </c>
       <c r="H62" s="3">
-        <v>7700</v>
+        <v>8600</v>
       </c>
       <c r="I62" s="3">
         <v>3400</v>
@@ -3820,13 +3820,13 @@
         <v>10500</v>
       </c>
       <c r="F66" s="3">
-        <v>10200</v>
+        <v>11400</v>
       </c>
       <c r="G66" s="3">
         <v>12400</v>
       </c>
       <c r="H66" s="3">
-        <v>13100</v>
+        <v>12400</v>
       </c>
       <c r="I66" s="3">
         <v>5100</v>
@@ -4132,25 +4132,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-55400</v>
+        <v>-54800</v>
       </c>
       <c r="E72" s="3">
-        <v>-50600</v>
+        <v>-50500</v>
       </c>
       <c r="F72" s="3">
-        <v>-42400</v>
+        <v>-42300</v>
       </c>
       <c r="G72" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="H72" s="3">
-        <v>-27500</v>
+        <v>-26600</v>
       </c>
       <c r="I72" s="3">
-        <v>-26400</v>
+        <v>-26300</v>
       </c>
       <c r="J72" s="3">
-        <v>-22500</v>
+        <v>-22400</v>
       </c>
       <c r="K72" s="3">
         <v>-18900</v>
@@ -4386,7 +4386,7 @@
         <v>20500</v>
       </c>
       <c r="J76" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="K76" s="3">
         <v>8100</v>
@@ -4549,17 +4549,17 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-4500</v>
       </c>
       <c r="E81" s="3">
         <v>-8800</v>
       </c>
       <c r="F81" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="G81" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="H81" s="3">
         <v>-1300</v>
@@ -4631,8 +4631,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
@@ -5001,7 +5001,7 @@
         <v>2000</v>
       </c>
       <c r="I89" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="J89" s="3">
         <v>-3900</v>
@@ -5680,8 +5680,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>600</v>
       </c>
       <c r="E102" s="3">
         <v>-1900</v>
